--- a/pq-debug-training/template/customer_sales_data_sheets.xlsx
+++ b/pq-debug-training/template/customer_sales_data_sheets.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,9 +31,6 @@
       <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -80,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -89,7 +86,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -416,6 +412,7 @@
     <col width="18.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="17.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="17.28515625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="12" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -459,6 +456,11 @@
           <t>Date of Purchase</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Sample Data</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -493,6 +495,11 @@
       <c r="H2" s="4" t="n">
         <v>45413</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Data 1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,6 +534,11 @@
       <c r="H3" s="4" t="n">
         <v>45415</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Data 2</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -561,6 +573,11 @@
       <c r="H4" s="4" t="n">
         <v>45417</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Data 3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -595,6 +612,11 @@
       <c r="H5" s="4" t="n">
         <v>45419</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Data 4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -629,6 +651,11 @@
       <c r="H6" s="4" t="n">
         <v>45421</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Data 5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -663,6 +690,11 @@
       <c r="H7" s="4" t="n">
         <v>45423</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Data 6</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -697,6 +729,11 @@
       <c r="H8" s="4" t="n">
         <v>45425</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Data 7</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -731,6 +768,11 @@
       <c r="H9" s="4" t="n">
         <v>45427</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Data 8</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -765,6 +807,11 @@
       <c r="H10" s="4" t="n">
         <v>45429</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Data 9</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -798,6 +845,11 @@
       </c>
       <c r="H11" s="4" t="n">
         <v>45431</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Data 10</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -813,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B39" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -827,6 +879,7 @@
     <col width="18.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="17.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="17.28515625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="12" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -870,7 +923,7 @@
           <t>Date of Purchase</t>
         </is>
       </c>
-      <c r="I1" s="8" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Sample Data</t>
         </is>
